--- a/public/import/客户信息.xlsx
+++ b/public/import/客户信息.xlsx
@@ -40,7 +40,7 @@
     <t>徐先生</t>
   </si>
   <si>
-    <t>男</t>
+    <t>先生</t>
   </si>
   <si>
     <t>***@qq.com</t>
@@ -54,10 +54,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -79,56 +79,41 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,16 +128,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,13 +148,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -181,25 +159,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,8 +204,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,6 +228,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -240,13 +300,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,37 +360,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,31 +384,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,79 +402,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,32 +433,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,6 +485,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -519,157 +508,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1056,7 +1056,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="6"/>

--- a/public/import/客户信息.xlsx
+++ b/public/import/客户信息.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>电话号码</t>
   </si>
@@ -25,6 +25,9 @@
     <t>性别</t>
   </si>
   <si>
+    <t>称呼</t>
+  </si>
+  <si>
     <t>邮箱</t>
   </si>
   <si>
@@ -38,6 +41,9 @@
   </si>
   <si>
     <t>徐先生</t>
+  </si>
+  <si>
+    <t>男</t>
   </si>
   <si>
     <t>先生</t>
@@ -55,9 +61,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -77,43 +83,105 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,26 +196,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -159,54 +211,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,61 +234,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,109 +402,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,6 +425,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -439,9 +460,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -464,58 +520,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,10 +531,10 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -537,7 +543,7 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -546,7 +552,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -555,115 +561,115 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1053,13 +1059,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="18.875" customWidth="1"/>
     <col min="2" max="2" width="9.625" customWidth="1"/>
@@ -1069,7 +1075,7 @@
     <col min="7" max="7" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1091,33 +1097,39 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>17359999999</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="F2">
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2">
         <v>123</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="***@qq.com"/>
+    <hyperlink ref="E2" r:id="rId1" display="***@qq.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/public/import/客户信息.xlsx
+++ b/public/import/客户信息.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>电话号码</t>
   </si>
@@ -22,37 +22,22 @@
     <t>名称</t>
   </si>
   <si>
-    <t>性别</t>
-  </si>
-  <si>
     <t>称呼</t>
   </si>
   <si>
-    <t>邮箱</t>
+    <t>槽位1</t>
   </si>
   <si>
-    <t>是否屏蔽</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>自动重拨次数</t>
+    <t>槽位2</t>
   </si>
   <si>
     <t>徐先生</t>
   </si>
   <si>
-    <t>男</t>
-  </si>
-  <si>
     <t>先生</t>
   </si>
   <si>
-    <t>***@qq.com</t>
-  </si>
-  <si>
-    <t>否</t>
+    <t>下午</t>
   </si>
 </sst>
 </file>
@@ -60,10 +45,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -83,7 +68,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -92,6 +77,21 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -99,13 +99,59 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -116,50 +162,6 @@
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -171,22 +173,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -197,29 +183,28 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,187 +219,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,21 +410,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -464,24 +434,6 @@
         <color theme="4"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -520,6 +472,39 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -528,148 +513,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1059,13 +1044,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="C1" sqref="C1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="18.875" customWidth="1"/>
     <col min="2" max="2" width="9.625" customWidth="1"/>
@@ -1075,7 +1060,7 @@
     <col min="7" max="7" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1091,46 +1076,25 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>17359999999</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
+      <c r="D2" s="1">
+        <v>20221010</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2">
-        <v>123</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
+      <c r="E2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="***@qq.com"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/public/import/客户信息.xlsx
+++ b/public/import/客户信息.xlsx
@@ -19,7 +19,7 @@
     <t>电话号码</t>
   </si>
   <si>
-    <t>名称</t>
+    <t>姓名</t>
   </si>
   <si>
     <t>称呼</t>
@@ -45,9 +45,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -67,6 +67,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -75,6 +90,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -82,7 +111,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -96,80 +156,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -183,12 +174,28 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -198,13 +205,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,19 +225,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,7 +321,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,145 +399,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,6 +410,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -424,32 +433,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -473,6 +456,32 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -481,8 +490,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,160 +510,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1047,7 +1047,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="4"/>

--- a/public/import/客户信息.xlsx
+++ b/public/import/客户信息.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21345" windowHeight="10425"/>
+    <workbookView windowWidth="28125" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="意图" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>电话号码</t>
   </si>
@@ -37,7 +37,7 @@
     <t>先生</t>
   </si>
   <si>
-    <t>下午</t>
+    <t>***</t>
   </si>
 </sst>
 </file>
@@ -45,9 +45,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -67,6 +67,119 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -76,128 +189,15 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,13 +231,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,157 +393,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,11 +452,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,11 +484,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,165 +500,161 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1047,7 +1047,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -1087,8 +1087,8 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1">
-        <v>20221010</v>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
